--- a/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
+++ b/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002316\Documents\GitRepos\GitHub\uipath-samples\SAMPLE01_高速道路料金検索\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6E8B8-D240-4F67-A160-C98E28AB8A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94AAC7-70F2-4160-92F2-9DCF29EB2BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11145" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>出発IC</t>
     <phoneticPr fontId="1"/>
@@ -57,11 +57,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>静岡</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>豊田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森掛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛川</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到着IC(正)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発IC(正)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森掛川</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,15 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE3EE8-120F-4342-A955-A3FA8765F908}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="8" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,24 +488,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3870</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3870</v>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2720</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2930</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2930</v>
       </c>
     </row>
   </sheetData>

--- a/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
+++ b/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002316\Documents\GitRepos\GitHub\uipath-samples\SAMPLE01_高速道路料金検索\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94AAC7-70F2-4160-92F2-9DCF29EB2BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB9026-3F01-48A1-A476-9F02BAF81E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11145" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>出発IC</t>
     <phoneticPr fontId="1"/>
@@ -77,7 +77,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>森掛川</t>
+    <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE3EE8-120F-4342-A955-A3FA8765F908}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -507,15 +511,8 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2720</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2720</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -524,15 +521,28 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
-        <v>2930</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2930</v>
-      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
+++ b/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002316\Documents\GitRepos\GitHub\uipath-samples\SAMPLE01_高速道路料金検索\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB9026-3F01-48A1-A476-9F02BAF81E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A981D-9F4A-43F9-9270-06E7DAD56126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
+++ b/SAMPLE01_高速道路料金検索/Data/対象データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002316\Documents\GitRepos\GitHub\uipath-samples\SAMPLE01_高速道路料金検索\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A981D-9F4A-43F9-9270-06E7DAD56126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443121FE-0D4E-4D97-BB24-F702BB03341B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{A85B8A65-FF12-4F68-AFBF-5A0B64EB4676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>出発IC</t>
     <phoneticPr fontId="1"/>
@@ -57,18 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>豊田</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>森掛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掛川</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>到着IC(正)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -81,7 +69,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あ</t>
+    <t>東京</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下関</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -492,10 +496,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -506,30 +510,30 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -539,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
